--- a/biology/Médecine/Richard_von_Volkmann/Richard_von_Volkmann.xlsx
+++ b/biology/Médecine/Richard_von_Volkmann/Richard_von_Volkmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard von Volkmann (17 août 1830, Leipzig - 28 novembre 1889, Iéna) est un poète et chirurgien allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Volkmann est le deuxième des douze enfants du physiologiste et anatomiste Alfred Wilhelm Volkmann et de son épouse Adele, née Härtel (1808-1884 ; fille de l'éditeur de musique Gottfried Christoph Härtel). De 1845 à 1851, il étudie à l'école princière de Grimma (de). À partir de 1850, conformément au souhait de son père, il étudie la médecine à l'université Frédéric de Halle, à l'université Louis de Hesse de Giessen et à l'université Frédéric-Guillaume de Berlin, où il passe - comme tous les médecins prussiens - son examen d'État en 1854 et obtient son doctorat en médecine. À Halle, il rejoint en 1849/50 la Progressburschenschaft Fürstenthal[1],[2]. En 1851, il devient membre du Corps Starkenburgia (de) et du Corps Marchia Halle (de)[3]. En 1867 il est professeur de chirurgie et directeur de la clinique chirurgicale à Halle où il demeure jusqu'à la retraite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Volkmann est le deuxième des douze enfants du physiologiste et anatomiste Alfred Wilhelm Volkmann et de son épouse Adele, née Härtel (1808-1884 ; fille de l'éditeur de musique Gottfried Christoph Härtel). De 1845 à 1851, il étudie à l'école princière de Grimma (de). À partir de 1850, conformément au souhait de son père, il étudie la médecine à l'université Frédéric de Halle, à l'université Louis de Hesse de Giessen et à l'université Frédéric-Guillaume de Berlin, où il passe - comme tous les médecins prussiens - son examen d'État en 1854 et obtient son doctorat en médecine. À Halle, il rejoint en 1849/50 la Progressburschenschaft Fürstenthal,. En 1851, il devient membre du Corps Starkenburgia (de) et du Corps Marchia Halle (de). En 1867 il est professeur de chirurgie et directeur de la clinique chirurgicale à Halle où il demeure jusqu'à la retraite.
 Von Volkmann réalise la première excision d'un carcinome du rectum en 1878. Il décrit le syndrome de Volkmann en 1881 et invente une attelle et une cuillère qui portent son nom. Son traitement de la tuberculose articulaire fait la gloire de la chirurgie préventive. En 1894 von Volkmann décrit trois patients atteints de cancers du scrotum qui travaillent avec de la paraffine et du goudron. Il a été l'un des premiers à appliquer les idées de Joseph Lister et à introduire la chirurgie antiseptique en Allemagne. Il est l'un des premiers, en Europe, également, à pratiquer l'opération de l'appendicectomie et forme à cette technique le médecin suisse Charles Krafft qui l'introduira en Suisse romande en 1888.
-Von Volkmann a publié plusieurs poèmes et contes de fées sous le pseudonyme de Richard Leander dont Träumereien an französischen Kaminen (Rêveries au coin de cheminées françaises[4]).
+Von Volkmann a publié plusieurs poèmes et contes de fées sous le pseudonyme de Richard Leander dont Träumereien an französischen Kaminen (Rêveries au coin de cheminées françaises).
 </t>
         </is>
       </c>
